--- a/atomica/library/hiv_dyn_progbook.xlsx
+++ b/atomica/library/hiv_dyn_progbook.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2074B61-8F70-4F71-B568-DDA8A42EF4E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -156,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,26 +271,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="325">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -301,8 +295,3518 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,27 +4094,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -653,7 +4149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -688,7 +4184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -723,7 +4219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -758,7 +4254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -793,7 +4289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -828,7 +4324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -863,7 +4359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -900,508 +4396,322 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="48" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="57" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="58" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="59" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="52" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="61" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="62" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="63" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="63">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:L9 C3:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1410,21 +4720,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - clinics</v>
@@ -1452,7 +4761,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +4780,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +4799,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +4816,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +4833,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +4852,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - outreach</v>
@@ -1571,7 +4880,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1590,7 +4899,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +4918,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +4935,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1643,7 +4952,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1662,7 +4971,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Same-day initiation counselling</v>
@@ -1690,7 +4999,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +5018,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1728,7 +5037,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1745,7 +5054,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +5071,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1781,7 +5090,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Classic initiation counselling</v>
@@ -1809,7 +5118,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +5137,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +5156,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1864,7 +5173,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +5190,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1900,7 +5209,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Client tracing</v>
@@ -1928,7 +5237,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +5256,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +5275,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +5292,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2000,7 +5309,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -2019,7 +5328,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Advanced adherence support</v>
@@ -2047,7 +5356,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -2066,7 +5375,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -2085,7 +5394,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -2102,7 +5411,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -2119,7 +5428,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -2138,7 +5447,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Whatsapp adherence support</v>
@@ -2166,7 +5475,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2185,7 +5494,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +5513,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -2221,7 +5530,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -2238,7 +5547,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -2259,326 +5568,290 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="261" priority="13">
       <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="260" priority="14">
       <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="259" priority="15">
       <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="258" priority="16">
       <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="257" priority="17">
       <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="256" priority="18">
       <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="255" priority="19">
       <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="254" priority="20">
       <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="253" priority="21">
       <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="252" priority="22">
       <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="251" priority="23">
       <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="250" priority="24">
       <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="249" priority="25">
       <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="248" priority="26">
       <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="247" priority="27">
       <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="246" priority="28">
       <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="245" priority="1">
       <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="244" priority="2">
       <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="243" priority="29">
       <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="242" priority="30">
       <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="241" priority="31">
       <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="240" priority="32">
       <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="239" priority="33">
       <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="238" priority="34">
       <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="237" priority="35">
       <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="236" priority="36">
       <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="235" priority="37">
       <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="234" priority="38">
       <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="233" priority="39">
       <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="232" priority="40">
       <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="231" priority="3">
       <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="230" priority="4">
       <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="229" priority="41">
       <formula>COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="228" priority="42">
       <formula>AND(COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="227" priority="43">
       <formula>COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="226" priority="44">
       <formula>AND(COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="225" priority="45">
       <formula>COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="46">
+    <cfRule type="expression" dxfId="224" priority="46">
       <formula>AND(COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1" priority="47">
+    <cfRule type="expression" dxfId="223" priority="47">
       <formula>COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="222" priority="48">
       <formula>AND(COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="221" priority="49">
       <formula>COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
+    <cfRule type="expression" dxfId="220" priority="50">
       <formula>AND(COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1" priority="51">
+    <cfRule type="expression" dxfId="219" priority="51">
       <formula>COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="218" priority="52">
       <formula>AND(COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="217" priority="53">
       <formula>COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="216" priority="54">
       <formula>AND(COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="215" priority="55">
       <formula>COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="214" priority="56">
       <formula>AND(COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="213" priority="5">
       <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="212" priority="6">
       <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="211" priority="57">
       <formula>COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="210" priority="58">
       <formula>AND(COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="209" priority="59">
       <formula>COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="208" priority="60">
       <formula>AND(COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="1" priority="61">
+    <cfRule type="expression" dxfId="207" priority="61">
       <formula>COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="62">
+    <cfRule type="expression" dxfId="206" priority="62">
       <formula>AND(COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1" priority="63">
+    <cfRule type="expression" dxfId="205" priority="63">
       <formula>COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="64">
+    <cfRule type="expression" dxfId="204" priority="64">
       <formula>AND(COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1" priority="65">
+    <cfRule type="expression" dxfId="203" priority="65">
       <formula>COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="66">
+    <cfRule type="expression" dxfId="202" priority="66">
       <formula>AND(COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="1" priority="67">
+    <cfRule type="expression" dxfId="201" priority="67">
       <formula>COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="68">
+    <cfRule type="expression" dxfId="200" priority="68">
       <formula>AND(COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="1" priority="69">
+    <cfRule type="expression" dxfId="199" priority="69">
       <formula>COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70">
+    <cfRule type="expression" dxfId="198" priority="70">
       <formula>AND(COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="197" priority="7">
       <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="196" priority="8">
       <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="195" priority="9">
       <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="194" priority="10">
       <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="193" priority="11">
       <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="192" priority="12">
       <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B45 B38 B31 B24 B17 B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B46 B39 B32 B25 B18 B11" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2587,28 +5860,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="35.85546875" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="12" max="13" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,7 +5922,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2667,10 +5936,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H2" s="6">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -2678,7 +5947,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2692,10 +5961,10 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="6">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2703,7 +5972,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2748,7 +6017,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2773,7 +6042,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2798,7 +6067,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2843,7 +6112,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2870,13 +6139,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
       <c r="B11" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>39</v>
@@ -2897,7 +6166,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2942,7 +6211,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2967,7 +6236,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2988,7 +6257,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3033,7 +6302,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -3058,7 +6327,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -3083,7 +6352,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -3128,7 +6397,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -3153,7 +6422,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -3180,847 +6449,3391 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="1" priority="79">
+    <cfRule type="expression" dxfId="191" priority="79">
       <formula>COUNTIF(F10:M10,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="80">
+    <cfRule type="expression" dxfId="190" priority="80">
       <formula>AND(COUNTIF(F10:M10,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1" priority="95">
+    <cfRule type="expression" dxfId="189" priority="95">
       <formula>COUNTIF(F11:M11,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="96">
+    <cfRule type="expression" dxfId="188" priority="96">
       <formula>AND(COUNTIF(F11:M11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="1" priority="111">
+    <cfRule type="expression" dxfId="187" priority="111">
       <formula>COUNTIF(F14:M14,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="112">
+    <cfRule type="expression" dxfId="186" priority="112">
       <formula>AND(COUNTIF(F14:M14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="1" priority="127">
+    <cfRule type="expression" dxfId="185" priority="127">
       <formula>COUNTIF(F15:M15,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="128">
+    <cfRule type="expression" dxfId="184" priority="128">
       <formula>AND(COUNTIF(F15:M15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="1" priority="143">
+    <cfRule type="expression" dxfId="183" priority="143">
       <formula>COUNTIF(F18:M18,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="144">
+    <cfRule type="expression" dxfId="182" priority="144">
       <formula>AND(COUNTIF(F18:M18,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="1" priority="159">
+    <cfRule type="expression" dxfId="181" priority="159">
       <formula>COUNTIF(F19:M19,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="160">
+    <cfRule type="expression" dxfId="180" priority="160">
       <formula>AND(COUNTIF(F19:M19,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="179" priority="15">
       <formula>COUNTIF(F2:M2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="178" priority="16">
       <formula>AND(COUNTIF(F2:M2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="1" priority="175">
+    <cfRule type="expression" dxfId="177" priority="175">
       <formula>COUNTIF(F22:M22,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="176">
+    <cfRule type="expression" dxfId="176" priority="176">
       <formula>AND(COUNTIF(F22:M22,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="1" priority="191">
+    <cfRule type="expression" dxfId="175" priority="191">
       <formula>COUNTIF(F23:M23,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="192">
+    <cfRule type="expression" dxfId="174" priority="192">
       <formula>AND(COUNTIF(F23:M23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="173" priority="31">
       <formula>COUNTIF(F3:M3,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="172" priority="32">
       <formula>AND(COUNTIF(F3:M3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="1" priority="47">
+    <cfRule type="expression" dxfId="171" priority="47">
       <formula>COUNTIF(F6:M6,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="170" priority="48">
       <formula>AND(COUNTIF(F6:M6,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="1" priority="63">
+    <cfRule type="expression" dxfId="169" priority="63">
       <formula>COUNTIF(F7:M7,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="64">
+    <cfRule type="expression" dxfId="168" priority="64">
       <formula>AND(COUNTIF(F7:M7,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="65">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="81">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="97">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="113">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="2" priority="129">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="2" priority="145">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="2" priority="161">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="162">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="177">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="178">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="49">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="83">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="99">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="115">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="2" priority="131">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="2" priority="147">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="2" priority="163">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="2" priority="179">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="180">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="69">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="85">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="101">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="117">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="2" priority="133">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="2" priority="149">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="2" priority="165">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="2" priority="181">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="182">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="53">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="71">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="87">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="103">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="119">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="2" priority="135">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="2" priority="151">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="2" priority="167">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="168">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="2" priority="183">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="184">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="2" priority="39">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="2" priority="55">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="89">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="105">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="121">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="2" priority="137">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="2" priority="153">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="2" priority="169">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="170">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="2" priority="185">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="186">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="2" priority="41">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="2" priority="57">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="2" priority="75">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="91">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="107">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="2" priority="123">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="2" priority="139">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="2" priority="155">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="2" priority="171">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="2" priority="187">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="188">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="2" priority="43">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="2" priority="59">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="2" priority="77">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="93">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="109">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="2" priority="125">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="2" priority="141">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="2" priority="157">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="158">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="2" priority="173">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="174">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="expression" dxfId="2" priority="189">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="190">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="29">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="2" priority="45">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="2" priority="61">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C22:C23 C18:C19 C14:C15 C10:C11 C6:C7 C2:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D22:D23 D18:D19 D14:D15 D10:D11 D6:D7 D2:D3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000041000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-000042000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-000051000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-000052000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="97" id="{00000000-000E-0000-0200-000061000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="98" id="{00000000-000E-0000-0200-000062000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-000071000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-000072000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000081000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-000082000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="145" id="{00000000-000E-0000-0200-000091000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="146" id="{00000000-000E-0000-0200-000092000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="161" id="{00000000-000E-0000-0200-0000A1000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="162" id="{00000000-000E-0000-0200-0000A2000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="177" id="{00000000-000E-0000-0200-0000B1000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="178" id="{00000000-000E-0000-0200-0000B2000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000031000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-000032000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-000043000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-000044000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-000053000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-000054000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="99" id="{00000000-000E-0000-0200-000063000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="100" id="{00000000-000E-0000-0200-000064000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-000073000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-000074000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-000083000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-000084000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="147" id="{00000000-000E-0000-0200-000093000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="148" id="{00000000-000E-0000-0200-000094000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="163" id="{00000000-000E-0000-0200-0000A3000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="164" id="{00000000-000E-0000-0200-0000A4000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="179" id="{00000000-000E-0000-0200-0000B3000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="180" id="{00000000-000E-0000-0200-0000B4000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-000033000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-000034000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-000045000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-000046000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-000055000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-000056000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="101" id="{00000000-000E-0000-0200-000065000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="102" id="{00000000-000E-0000-0200-000066000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="117" id="{00000000-000E-0000-0200-000075000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="118" id="{00000000-000E-0000-0200-000076000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-000085000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-000086000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="149" id="{00000000-000E-0000-0200-000095000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="150" id="{00000000-000E-0000-0200-000096000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="165" id="{00000000-000E-0000-0200-0000A5000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="166" id="{00000000-000E-0000-0200-0000A6000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="181" id="{00000000-000E-0000-0200-0000B5000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="182" id="{00000000-000E-0000-0200-0000B6000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-000035000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-000036000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-000047000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000048000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-000057000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000058000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="103" id="{00000000-000E-0000-0200-000067000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="104" id="{00000000-000E-0000-0200-000068000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="119" id="{00000000-000E-0000-0200-000077000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="120" id="{00000000-000E-0000-0200-000078000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-000087000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000088000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="151" id="{00000000-000E-0000-0200-000097000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="152" id="{00000000-000E-0000-0200-000098000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="167" id="{00000000-000E-0000-0200-0000A7000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="168" id="{00000000-000E-0000-0200-0000A8000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="183" id="{00000000-000E-0000-0200-0000B7000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="184" id="{00000000-000E-0000-0200-0000B8000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-000027000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000028000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-000037000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000038000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000049000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-00004A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="89" id="{00000000-000E-0000-0200-000059000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="90" id="{00000000-000E-0000-0200-00005A000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000069000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-00006A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000079000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-00007A000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000089000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-00008A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="153" id="{00000000-000E-0000-0200-000099000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="154" id="{00000000-000E-0000-0200-00009A000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="169" id="{00000000-000E-0000-0200-0000A9000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="170" id="{00000000-000E-0000-0200-0000AA000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="185" id="{00000000-000E-0000-0200-0000B9000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="186" id="{00000000-000E-0000-0200-0000BA000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000029000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-00002A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000039000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-00003A000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-00004B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-00004C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-00005B000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-00005C000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="107" id="{00000000-000E-0000-0200-00006B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="108" id="{00000000-000E-0000-0200-00006C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-00007B000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-00007C000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-00008B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-00008C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="155" id="{00000000-000E-0000-0200-00009B000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="156" id="{00000000-000E-0000-0200-00009C000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="171" id="{00000000-000E-0000-0200-0000AB000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="172" id="{00000000-000E-0000-0200-0000AC000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="187" id="{00000000-000E-0000-0200-0000BB000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="188" id="{00000000-000E-0000-0200-0000BC000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-00002B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-00002C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-00003B000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-00003C000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-00004D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-00004E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="93" id="{00000000-000E-0000-0200-00005D000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="94" id="{00000000-000E-0000-0200-00005E000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="109" id="{00000000-000E-0000-0200-00006D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="110" id="{00000000-000E-0000-0200-00006E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="125" id="{00000000-000E-0000-0200-00007D000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="126" id="{00000000-000E-0000-0200-00007E000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-00008D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-00008E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="157" id="{00000000-000E-0000-0200-00009D000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="158" id="{00000000-000E-0000-0200-00009E000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="173" id="{00000000-000E-0000-0200-0000AD000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="174" id="{00000000-000E-0000-0200-0000AE000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="189" id="{00000000-000E-0000-0200-0000BD000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="190" id="{00000000-000E-0000-0200-0000BE000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-00002D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-00002E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-00003D000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-00003E000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/atomica/library/hiv_dyn_progbook.xlsx
+++ b/atomica/library/hiv_dyn_progbook.xlsx
@@ -3926,78 +3926,42 @@
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="24">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
